--- a/wildlife/reports/United-Kingdom/richness/2023/richness.xlsx
+++ b/wildlife/reports/United-Kingdom/richness/2023/richness.xlsx
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51.6708</v>
+        <v>51.67167</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.288</v>
+        <v>-1.27833</v>
       </c>
       <c r="E2" t="n">
         <v>151</v>
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51.70916</v>
+        <v>51.718</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.25489</v>
+        <v>-1.2611</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>53.55</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.3333</v>
+        <v>-2.3277</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
